--- a/易识测试用例-全用例.xlsx
+++ b/易识测试用例-全用例.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7010"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="test_case" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test_case!$A$2:$T$446</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">test_case!$A$2:$T$447</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -5080,7 +5080,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -5140,34 +5140,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -5181,14 +5153,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5228,6 +5192,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5278,7 +5257,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5305,55 +5305,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5371,31 +5329,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5419,6 +5365,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5431,7 +5389,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5455,7 +5437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5479,6 +5473,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5496,21 +5496,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5543,6 +5528,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5599,148 +5599,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5814,52 +5814,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -6133,24 +6133,24 @@
   <dimension ref="A1:T447"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I448" sqref="I448"/>
+      <selection pane="bottomLeft" activeCell="L452" sqref="L452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="44" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.7909090909091" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.787037037037" style="3" customWidth="1"/>
     <col min="2" max="2" width="10" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.0636363636364" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.54545454545455" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.0648148148148" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.5462962962963" style="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="4" customWidth="1"/>
     <col min="7" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7818181818182" style="5" customWidth="1"/>
-    <col min="11" max="11" width="23.2090909090909" style="5" customWidth="1"/>
-    <col min="12" max="12" width="23.5181818181818" style="5" customWidth="1"/>
-    <col min="13" max="13" width="10.9090909090909" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6818181818182" style="5" customWidth="1"/>
+    <col min="10" max="10" width="19.7777777777778" style="5" customWidth="1"/>
+    <col min="11" max="11" width="23.212962962963" style="5" customWidth="1"/>
+    <col min="12" max="12" width="23.5185185185185" style="5" customWidth="1"/>
+    <col min="13" max="13" width="10.9074074074074" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6851851851852" style="5" customWidth="1"/>
     <col min="15" max="20" width="9" style="1" customWidth="1"/>
     <col min="21" max="16384" width="14" style="1"/>
   </cols>
@@ -6231,7 +6231,7 @@
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="23" spans="1:17">
+    <row r="3" s="1" customFormat="1" ht="26.4" spans="1:17">
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="23" spans="1:17">
+    <row r="4" s="1" customFormat="1" ht="26.4" spans="1:17">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="23" spans="1:17">
+    <row r="5" s="1" customFormat="1" ht="26.4" spans="1:17">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="23" spans="1:17">
+    <row r="6" s="1" customFormat="1" ht="26.4" spans="1:17">
       <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="23" spans="1:17">
+    <row r="7" s="1" customFormat="1" ht="26.4" spans="1:17">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="23" spans="1:17">
+    <row r="8" s="1" customFormat="1" ht="26.4" spans="1:17">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="34.5" spans="1:17">
+    <row r="9" s="1" customFormat="1" ht="39.6" spans="1:17">
       <c r="A9" s="10" t="s">
         <v>51</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="23" spans="1:17">
+    <row r="10" s="1" customFormat="1" ht="26.4" spans="1:17">
       <c r="A10" s="10" t="s">
         <v>51</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="34.5" spans="1:17">
+    <row r="11" s="1" customFormat="1" ht="39.6" spans="1:17">
       <c r="A11" s="10" t="s">
         <v>51</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="34.5" spans="1:17">
+    <row r="12" s="1" customFormat="1" ht="39.6" spans="1:17">
       <c r="A12" s="10" t="s">
         <v>51</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="34.5" spans="1:17">
+    <row r="13" s="1" customFormat="1" ht="39.6" spans="1:17">
       <c r="A13" s="10" t="s">
         <v>51</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="23" spans="1:17">
+    <row r="14" s="1" customFormat="1" ht="26.4" spans="1:17">
       <c r="A14" s="10" t="s">
         <v>51</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="34.5" spans="1:17">
+    <row r="15" s="1" customFormat="1" ht="39.6" spans="1:17">
       <c r="A15" s="10" t="s">
         <v>51</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="16" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A16" s="12" t="s">
         <v>85</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="18" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A18" s="12" t="s">
         <v>85</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="19" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A19" s="12" t="s">
         <v>85</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="20" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A20" s="12" t="s">
         <v>85</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="21" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A21" s="12" t="s">
         <v>85</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="22" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A22" s="12" t="s">
         <v>85</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="23" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A23" s="12" t="s">
         <v>85</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="24" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A24" s="12" t="s">
         <v>85</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="27" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A27" s="12" t="s">
         <v>85</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="28" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A28" s="12" t="s">
         <v>85</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="29" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A29" s="12" t="s">
         <v>85</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="30" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A30" s="12" t="s">
         <v>85</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="32" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A32" s="12" t="s">
         <v>85</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="33" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A33" s="12" t="s">
         <v>85</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="34" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A34" s="12" t="s">
         <v>85</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="35" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A35" s="12" t="s">
         <v>85</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="36" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A36" s="12" t="s">
         <v>85</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="37" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A37" s="12" t="s">
         <v>85</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="38" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A38" s="12" t="s">
         <v>85</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="39" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A39" s="12" t="s">
         <v>85</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="40" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A40" s="12" t="s">
         <v>85</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="41" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A41" s="12" t="s">
         <v>85</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="42" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A42" s="12" t="s">
         <v>85</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="47" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A47" s="12" t="s">
         <v>161</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" ht="65" spans="1:17">
+    <row r="48" s="2" customFormat="1" ht="66" spans="1:17">
       <c r="A48" s="12" t="s">
         <v>161</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="49" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A49" s="12" t="s">
         <v>161</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="50" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A50" s="12" t="s">
         <v>161</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="51" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A51" s="12" t="s">
         <v>161</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="52" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A52" s="12" t="s">
         <v>161</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="53" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A53" s="12" t="s">
         <v>161</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="55" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A55" s="12" t="s">
         <v>161</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" ht="91" spans="1:17">
+    <row r="57" s="2" customFormat="1" ht="92.4" spans="1:17">
       <c r="A57" s="12" t="s">
         <v>161</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" ht="91" spans="1:17">
+    <row r="58" s="2" customFormat="1" ht="92.4" spans="1:17">
       <c r="A58" s="12" t="s">
         <v>161</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="59" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A59" s="12" t="s">
         <v>161</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" ht="91" spans="1:17">
+    <row r="60" s="2" customFormat="1" ht="92.4" spans="1:17">
       <c r="A60" s="12" t="s">
         <v>161</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="61" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A61" s="12" t="s">
         <v>161</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" ht="91" spans="1:17">
+    <row r="62" s="2" customFormat="1" ht="92.4" spans="1:17">
       <c r="A62" s="12" t="s">
         <v>161</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" ht="91" spans="1:17">
+    <row r="64" s="2" customFormat="1" ht="92.4" spans="1:17">
       <c r="A64" s="12" t="s">
         <v>161</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="65" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A65" s="12" t="s">
         <v>161</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" ht="91" spans="1:17">
+    <row r="66" s="2" customFormat="1" ht="92.4" spans="1:17">
       <c r="A66" s="12" t="s">
         <v>161</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" s="2" customFormat="1" ht="91" spans="1:17">
+    <row r="68" s="2" customFormat="1" ht="92.4" spans="1:17">
       <c r="A68" s="12" t="s">
         <v>161</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="1" ht="91" spans="1:17">
+    <row r="70" s="2" customFormat="1" ht="92.4" spans="1:17">
       <c r="A70" s="12" t="s">
         <v>161</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" ht="91" spans="1:17">
+    <row r="71" s="2" customFormat="1" ht="92.4" spans="1:17">
       <c r="A71" s="12" t="s">
         <v>161</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="72" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A72" s="12" t="s">
         <v>161</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" ht="91" spans="1:17">
+    <row r="80" s="2" customFormat="1" ht="92.4" spans="1:17">
       <c r="A80" s="12" t="s">
         <v>161</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" ht="78" spans="1:17">
+    <row r="81" s="2" customFormat="1" ht="79.2" spans="1:17">
       <c r="A81" s="12" t="s">
         <v>161</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" ht="91" spans="1:17">
+    <row r="82" s="2" customFormat="1" ht="92.4" spans="1:17">
       <c r="A82" s="12" t="s">
         <v>161</v>
       </c>
@@ -20459,7 +20459,7 @@
       <c r="N447" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T446">
+  <autoFilter ref="A2:T447">
     <extLst/>
   </autoFilter>
   <mergeCells count="2">
